--- a/src/main/resources/excel/employee.xlsx
+++ b/src/main/resources/excel/employee.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27602"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\person\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\person\Desktop\performance-api\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0930FDC3-10F2-4983-88F0-793452479AEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F9B5794-0D2A-4D63-A18E-3EE5909B72B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3168" yWindow="876" windowWidth="18360" windowHeight="11484" xr2:uid="{496D58AE-A48A-4D95-970C-B808FBB62163}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{496D58AE-A48A-4D95-970C-B808FBB62163}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
